--- a/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
+++ b/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FEB2E1-413B-4572-BA07-20E07E9CA582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3581266-B3AD-46CC-A3B8-1B6F2FC0CA1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="8730" windowHeight="3503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
-    <sheet name="Refs and Values" sheetId="2" r:id="rId2"/>
+    <sheet name="Kd_biochar_pred" sheetId="3" r:id="rId2"/>
+    <sheet name="Refs and Values" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="R_atm">[1]Constants!$C$2</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>Compound</t>
   </si>
@@ -317,15 +318,91 @@
   </si>
   <si>
     <t>Koc for BaP and PHE - from Mackay handbook via https://www.enviro.wiki/index.php?title=Polycyclic_Aromatic_Hydrocarbons_(PAHs)</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>log Ce (umol/L)</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Kd</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>LogD</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>H/C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>O/C</t>
+  </si>
+  <si>
+    <t>Wei et al 2020 for biochar characteristics</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n(av)</t>
+  </si>
+  <si>
+    <t>logKf(av)</t>
+  </si>
+  <si>
+    <t>Ce (ug/kg)</t>
+  </si>
+  <si>
+    <t>Kd (equivalent, L/kg)</t>
+  </si>
+  <si>
+    <t>Log Kd (L/kg)</t>
+  </si>
+  <si>
+    <t>Average Log Kd (umol/g)</t>
+  </si>
+  <si>
+    <t>LogKdam</t>
+  </si>
+  <si>
+    <t>Used Values</t>
+  </si>
+  <si>
+    <t>Freundlich Model of Sigmund et al (2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -843,7 +920,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -865,6 +942,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,7 +998,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -923,6 +1013,890 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kd_biochar_pred!$X$5:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3794119850920863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2245666857799544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kd_biochar_pred!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2520999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.44408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7060500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1948499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.64595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4925-485A-B921-E70E1B8D2657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="317007439"/>
+        <c:axId val="2060823407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="317007439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060823407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2060823407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317007439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C725416-FC2B-4B29-860E-18388F0C62D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,6 +1949,25 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Tim Rodgers" id="{E469431D-55DE-4124-96F2-18CB6D6B3851}" userId="Tim Rodgers" providerId="None"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C14E4110-AAF7-4602-8CA1-B31B83E5751B}" name="Table2" displayName="Table2" ref="C11:L31" totalsRowShown="0">
+  <autoFilter ref="C11:L31" xr:uid="{B4A1B920-DC8B-445E-834E-FD5C80B16E26}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{680884C5-0132-457F-BEF2-CE55437E4561}" name="MolMass" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9CDF3320-1411-48CF-BF19-F78B164E1E7A}" name="E"/>
+    <tableColumn id="3" xr3:uid="{2691486F-7EEE-49A2-ABEC-B99E1B4ED75A}" name="S"/>
+    <tableColumn id="4" xr3:uid="{210DA22D-CA01-4FB2-B914-A19E8EA26C2F}" name="A"/>
+    <tableColumn id="5" xr3:uid="{FD6830AD-F87B-40DE-AD72-12E226D5D1D1}" name="B"/>
+    <tableColumn id="6" xr3:uid="{61076DE3-EF86-466F-8F70-8A4082BC6336}" name="V"/>
+    <tableColumn id="7" xr3:uid="{5FCE3394-E336-4680-9F29-947168EFFB16}" name="BET"/>
+    <tableColumn id="8" xr3:uid="{562F2207-DE64-4525-8A75-B81F052B3069}" name="Vt"/>
+    <tableColumn id="9" xr3:uid="{4C7AD215-399F-4E72-BBD4-DB0DC30F4B25}" name="log Ce (umol/L)"/>
+    <tableColumn id="10" xr3:uid="{0F75C457-9877-4C69-AC4B-D0521B7B4401}" name="Kd"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,31 +2279,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="17" customWidth="1"/>
+    <col min="13" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,38 +2339,41 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1383,11 +2381,11 @@
         <v>298.39999999999998</v>
       </c>
       <c r="C2" s="2">
-        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(S2*100)^0.6))*(3600/100^2)</f>
+        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(T2*100)^0.6))*(3600/100^2)</f>
         <v>7.3648366095385989E-6</v>
       </c>
       <c r="D2" s="13">
-        <f>298.15^(1.75)*10^-3*SQRT((28.97+B2)/(28.97*B2))/(1*((S2*100)^(1/3)+(20.1)^(1/3))^2)</f>
+        <f>298.15^(1.75)*10^-3*SQRT((28.97+B2)/(28.97*B2))/(1*((T2*100)^(1/3)+(20.1)^(1/3))^2)</f>
         <v>5.1730159612816511E-2</v>
       </c>
       <c r="E2" s="2">
@@ -1412,33 +2410,36 @@
       <c r="K2" s="1">
         <v>3.14</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="19">
+        <v>4.2520999999999995</v>
+      </c>
+      <c r="M2" s="10">
         <v>999</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>10.406000000000001</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>0.12</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1.72</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2.4436</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +2451,7 @@
         <v>4.8999999999999997E-6</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D6" si="0">298.15^(1.75)*10^-3*SQRT((28.97+B3)/(28.97*B3))/(1*((S3*100)^(1/3)+(20.1)^(1/3))^2)</f>
+        <f t="shared" ref="D3:D6" si="0">298.15^(1.75)*10^-3*SQRT((28.97+B3)/(28.97*B3))/(1*((T3*100)^(1/3)+(20.1)^(1/3))^2)</f>
         <v>6.2351030201376383E-2</v>
       </c>
       <c r="E3" s="2">
@@ -1477,37 +2478,40 @@
         <f>'Refs and Values'!$C$7</f>
         <v>1.9960999999999998</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="19">
+        <v>3.44408</v>
+      </c>
+      <c r="M3" s="1">
         <f>'Refs and Values'!$C$15</f>
         <v>2.1819999999999999</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
         <v>-1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3.2970000000000002</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.39</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.46</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.33</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>1.5757000000000001</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +2519,7 @@
         <v>178.23</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C3:C5" si="1">(0.000000074*(2.6*B4)^0.5*(273.15+17)/(1.0791*(S4*100)^0.6))*(3600/100^2)</f>
+        <f t="shared" ref="C4" si="1">(0.000000074*(2.6*B4)^0.5*(273.15+17)/(1.0791*(T4*100)^0.6))*(3600/100^2)</f>
         <v>7.7707307432923926E-6</v>
       </c>
       <c r="D4" s="13">
@@ -1545,36 +2549,39 @@
       <c r="K4" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="19">
+        <v>6.7060500000000003</v>
+      </c>
+      <c r="M4" s="10">
         <v>999</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7.6319999999999997</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.29</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.26</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>1.4543999999999999</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>62</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +2589,7 @@
         <v>252.316</v>
       </c>
       <c r="C5" s="2">
-        <f>(0.000000074*(2.6*B5)^0.5*(273.15+17)/(1.0791*(S5*100)^0.6))*(3600/100^2)</f>
+        <f>(0.000000074*(2.6*B5)^0.5*(273.15+17)/(1.0791*(T5*100)^0.6))*(3600/100^2)</f>
         <v>7.745559321253756E-6</v>
       </c>
       <c r="D5" s="13">
@@ -1612,35 +2619,38 @@
       <c r="K5">
         <v>6.74</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="19">
+        <v>7.1948499999999997</v>
+      </c>
+      <c r="M5">
         <v>999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>11.736000000000001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.98</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.44</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>1.9536</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>63</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1648,7 +2658,7 @@
         <v>119.127</v>
       </c>
       <c r="C6" s="2">
-        <f>(0.000000074*(2.6*B6)^0.5*(273.15+17)/(1.0791*(S6*100)^0.6))*(3600/100^2)</f>
+        <f>(0.000000074*(2.6*B6)^0.5*(273.15+17)/(1.0791*(T6*100)^0.6))*(3600/100^2)</f>
         <v>8.6819708262146042E-6</v>
       </c>
       <c r="D6" s="13">
@@ -1678,125 +2688,128 @@
         <f>LOG(71)</f>
         <v>1.8512583487190752</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="19">
+        <v>6.64595</v>
+      </c>
+      <c r="M6" s="1">
         <v>8.3699999999999992</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>-1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>5.6689999999999996</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1.46</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.64</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0.48</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.86419999999999997</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E16" s="5"/>
       <c r="F16" s="14"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F22" s="5"/>
     </row>
   </sheetData>
@@ -1807,27 +2820,2168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893187D8-C220-4F45-9E13-59CBB8F4D5BF}">
+  <dimension ref="B1:AJ31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.72</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2.4436</v>
+      </c>
+      <c r="I5" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K5" s="15">
+        <f>LOG($K$3/1/C5)</f>
+        <v>-2.4747988188006311</v>
+      </c>
+      <c r="L5" s="17">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B5,Table2[Kd])</f>
+        <v>1.2521</v>
+      </c>
+      <c r="M5">
+        <f>(10^(L5)*10^K5)*1000*C5</f>
+        <v>17868.989761804281</v>
+      </c>
+      <c r="N5" s="18">
+        <f>LOG(M5/$K$3)</f>
+        <v>4.2520999999999995</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>79.09</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V5" s="17">
+        <v>85.3</v>
+      </c>
+      <c r="W5" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X5" s="19">
+        <f>CHEMSUMM!K2</f>
+        <v>3.14</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>1.72</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>2.4436</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>5.1662089587950391</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0.4791143812258129</v>
+      </c>
+      <c r="AG5" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R5,$AE$5:$AE$24)</f>
+        <v>5.2561474743145284</v>
+      </c>
+      <c r="AH5" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R5,$AF$5:$AF$24)</f>
+        <v>0.48774820972488253</v>
+      </c>
+      <c r="AI5">
+        <f>10^AG5*$K$3^(AH5)</f>
+        <v>180363.00994492471</v>
+      </c>
+      <c r="AJ5">
+        <f>LOG(AI5/$K$3)</f>
+        <v>5.2561474743145293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="17">
+        <v>414.07</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="E6" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I6" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K9" si="0">LOG($K$3/1/C6)</f>
+        <v>-2.6170737663477652</v>
+      </c>
+      <c r="L6" s="17">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B6,Table2[Kd])</f>
+        <v>0.44408000000000003</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" ref="M6:M9" si="1">(10^(L6)*10^K6)*1000*C6</f>
+        <v>2780.2253570296571</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" ref="N6:N9" si="2">LOG(M6/$K$3)</f>
+        <v>3.44408</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="R6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="17">
+        <v>79.09</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V6" s="17">
+        <v>85.3</v>
+      </c>
+      <c r="W6" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X6" s="19">
+        <f>CHEMSUMM!I3-LOG(1+10^(Kd_biochar_pred!W6-CHEMSUMM!M3))</f>
+        <v>-2.3794119850920863</v>
+      </c>
+      <c r="Y6" s="16">
+        <f>1-1/(1+10^(-1*(CHEMSUMM!M3-Kd_biochar_pred!W6)))</f>
+        <v>0.99994847979001067</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>4.5463190816545902</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>0.83052533714390009</v>
+      </c>
+      <c r="AG6" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R6,$AE$5:$AE$24)</f>
+        <v>4.9675340275172459</v>
+      </c>
+      <c r="AH6" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R6,$AF$5:$AF$24)</f>
+        <v>0.80777915876451334</v>
+      </c>
+      <c r="AI6" s="17">
+        <f t="shared" ref="AI6:AI9" si="3">10^AG6*$K$3^(AH6)</f>
+        <v>92797.01949074505</v>
+      </c>
+      <c r="AJ6" s="17">
+        <f t="shared" ref="AJ6:AJ9" si="4">LOG(AI6/$K$3)</f>
+        <v>4.9675340275172468</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17">
+        <v>178.23</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I7" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.2509808070963495</v>
+      </c>
+      <c r="L7" s="17">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B7,Table2[Kd])</f>
+        <v>3.7060500000000003</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>5082179.4994631745</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="2"/>
+        <v>6.7060500000000003</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="R7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="17">
+        <v>79.09</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V7" s="17">
+        <v>85.3</v>
+      </c>
+      <c r="W7" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X7" s="19">
+        <f>CHEMSUMM!K4</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>-7.1659467145981495E-2</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0.59733577311556507</v>
+      </c>
+      <c r="AG7" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R7,$AE$5:$AE$24)</f>
+        <v>6.0224548389247637E-2</v>
+      </c>
+      <c r="AH7" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R7,$AF$5:$AF$24)</f>
+        <v>0.57769257954737085</v>
+      </c>
+      <c r="AI7" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1487474183775324</v>
+      </c>
+      <c r="AJ7" s="17">
+        <f t="shared" si="4"/>
+        <v>6.0224548389247644E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="21">
+        <v>252.316</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1.9536</v>
+      </c>
+      <c r="I8" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.4019447911096794</v>
+      </c>
+      <c r="L8" s="17">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B8,Table2[Kd])</f>
+        <v>4.1948499999999997</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>15662100.268996088</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="2"/>
+        <v>7.1948499999999997</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="R8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="17">
+        <v>79.09</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V8" s="17">
+        <v>85.3</v>
+      </c>
+      <c r="W8" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X8" s="19">
+        <f>CHEMSUMM!K5</f>
+        <v>6.74</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>1.9536</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>1.4830342587683041</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0.50400975004703974</v>
+      </c>
+      <c r="AG8" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R8,$AE$5:$AE$24)</f>
+        <v>1.7887608610066046</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R8,$AF$5:$AF$24)</f>
+        <v>0.48641627408780025</v>
+      </c>
+      <c r="AI8" s="17">
+        <f t="shared" si="3"/>
+        <v>61.48382262643635</v>
+      </c>
+      <c r="AJ8" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7887608610066046</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="20">
+        <v>119.127</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.47</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I9" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.0760102049930564</v>
+      </c>
+      <c r="L9" s="17">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B9,Table2[Kd])</f>
+        <v>3.64595</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="1"/>
+        <v>4425374.2042628517</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="2"/>
+        <v>6.64595</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="R9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="17">
+        <v>79.09</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V9" s="17">
+        <v>85.3</v>
+      </c>
+      <c r="W9" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X9" s="19">
+        <f>CHEMSUMM!I6-LOG(1+10^(Kd_biochar_pred!W9-CHEMSUMM!M6))</f>
+        <v>1.2245666857799544</v>
+      </c>
+      <c r="Y9" s="16">
+        <f>1-1/(1+10^(-1*(CHEMSUMM!M6-Kd_biochar_pred!W9)))</f>
+        <v>1.243273525444244E-2</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>1.47</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>5.7677745855689473</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>0.36880927004596509</v>
+      </c>
+      <c r="AG9" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R9,$AE$5:$AE$24)</f>
+        <v>5.4989010944744248</v>
+      </c>
+      <c r="AH9" s="17">
+        <f>AVERAGEIF($R$5:$R$24,"="&amp;R9,$AF$5:$AF$24)</f>
+        <v>0.30430277820173979</v>
+      </c>
+      <c r="AI9" s="17">
+        <f t="shared" si="3"/>
+        <v>315428.61895156227</v>
+      </c>
+      <c r="AJ9" s="17">
+        <f t="shared" si="4"/>
+        <v>5.4989010944744257</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="R10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="17">
+        <v>65.98</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V10" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="W10" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X10" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>1.72</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>2.4436</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>4.8542628313548075</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0.50806741629785979</v>
+      </c>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="17">
+        <v>65.98</v>
+      </c>
+      <c r="T11" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U11" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V11" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="W11" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X11" s="19">
+        <v>-2.3794119850920863</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0.99994847979001067</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>4.7603979047095928</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>0.81126402978345991</v>
+      </c>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2.4436</v>
+      </c>
+      <c r="I12" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K12" s="17">
+        <v>-2.4748000000000001</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.0613999999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <f>10^(L12)*10^K12</f>
+        <v>3.8601128374531966E-2</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="17">
+        <v>65.98</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V12" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="W12" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X12" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>-0.23824306534089815</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>0.61809802558790328</v>
+      </c>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="E13" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I13" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K13" s="17">
+        <v>-2.6171000000000002</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.41946</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" ref="M13:M31" si="5">10^(L13)*10^K13</f>
+        <v>6.3439536311258454E-3</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="17">
+        <v>65.98</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V13" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="W13" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X13" s="19">
+        <v>6.74</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>1.9536</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>1.3172361589044053</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>0.5186640484265882</v>
+      </c>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I14" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K14" s="17">
+        <v>-2.2509999999999999</v>
+      </c>
+      <c r="L14" s="17">
+        <v>3.3515000000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="5"/>
+        <v>12.603756378944256</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="17">
+        <v>65.98</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="V14" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="W14" s="17">
+        <v>6.47</v>
+      </c>
+      <c r="X14" s="19">
+        <v>1.2245666857799544</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>1.243273525444244E-2</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>1.47</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>5.5797193039844872</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0.38836741030340577</v>
+      </c>
+      <c r="AG14" s="17"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1.9536</v>
+      </c>
+      <c r="I15" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K15" s="17">
+        <v>-2.4018999999999999</v>
+      </c>
+      <c r="L15" s="17">
+        <v>3.6217999999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="5"/>
+        <v>16.592048174216277</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15">
+        <v>79.09</v>
+      </c>
+      <c r="T15">
+        <v>0.24</v>
+      </c>
+      <c r="U15">
+        <v>0.17</v>
+      </c>
+      <c r="V15" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W15">
+        <v>6.47</v>
+      </c>
+      <c r="X15">
+        <v>3.14</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>2.15</v>
+      </c>
+      <c r="AA15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>0.12</v>
+      </c>
+      <c r="AC15">
+        <v>1.72</v>
+      </c>
+      <c r="AD15">
+        <v>2.4436</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>5.510715985334576</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>0.47759835863935884</v>
+      </c>
+      <c r="AG15" s="17"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="C16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I16" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K16" s="17">
+        <v>-2.0760000000000001</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3.1423000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="5"/>
+        <v>11.649304569904537</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16">
+        <v>79.09</v>
+      </c>
+      <c r="T16">
+        <v>0.24</v>
+      </c>
+      <c r="U16">
+        <v>0.17</v>
+      </c>
+      <c r="V16" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W16">
+        <v>6.47</v>
+      </c>
+      <c r="X16">
+        <v>-2.3794119850920863</v>
+      </c>
+      <c r="Y16">
+        <v>0.99994847979001067</v>
+      </c>
+      <c r="Z16">
+        <v>-0.88</v>
+      </c>
+      <c r="AA16">
+        <v>-0.39</v>
+      </c>
+      <c r="AB16">
+        <v>0.46</v>
+      </c>
+      <c r="AC16">
+        <v>0.33</v>
+      </c>
+      <c r="AD16">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>5.0393474331317307</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>0.81690310917092912</v>
+      </c>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2.4436</v>
+      </c>
+      <c r="I17" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K17" s="17">
+        <v>-2.7757999999999998</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1.1402000000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3141952615112545E-2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17">
+        <v>79.09</v>
+      </c>
+      <c r="T17">
+        <v>0.24</v>
+      </c>
+      <c r="U17">
+        <v>0.17</v>
+      </c>
+      <c r="V17" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W17">
+        <v>6.47</v>
+      </c>
+      <c r="X17">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>2.06</v>
+      </c>
+      <c r="AA17">
+        <v>1.29</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0.26</v>
+      </c>
+      <c r="AD17">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>0.21820110127243914</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>0.56484139618017326</v>
+      </c>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="E18" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I18" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K18" s="17">
+        <v>-2.9180999999999999</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.43012</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2510226855345325E-3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18">
+        <v>79.09</v>
+      </c>
+      <c r="T18">
+        <v>0.24</v>
+      </c>
+      <c r="U18">
+        <v>0.17</v>
+      </c>
+      <c r="V18" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W18">
+        <v>6.47</v>
+      </c>
+      <c r="X18">
+        <v>6.74</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>3.63</v>
+      </c>
+      <c r="AA18">
+        <v>1.98</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0.44</v>
+      </c>
+      <c r="AD18">
+        <v>1.9536</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>2.0311761278649807</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>0.47477031705780448</v>
+      </c>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I19" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K19" s="17">
+        <v>-2.552</v>
+      </c>
+      <c r="L19" s="17">
+        <v>3.4967000000000001</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="5"/>
+        <v>8.8044047616467598</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19">
+        <v>79.09</v>
+      </c>
+      <c r="T19">
+        <v>0.24</v>
+      </c>
+      <c r="U19">
+        <v>0.17</v>
+      </c>
+      <c r="V19" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W19">
+        <v>6.47</v>
+      </c>
+      <c r="X19">
+        <v>1.2245666857799544</v>
+      </c>
+      <c r="Y19">
+        <v>1.243273525444244E-2</v>
+      </c>
+      <c r="Z19">
+        <v>1.47</v>
+      </c>
+      <c r="AA19">
+        <v>1.46</v>
+      </c>
+      <c r="AB19">
+        <v>0.64</v>
+      </c>
+      <c r="AC19">
+        <v>0.48</v>
+      </c>
+      <c r="AD19">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>5.6335507811414978</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>0.26608596228376202</v>
+      </c>
+      <c r="AG19" s="17"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.9536</v>
+      </c>
+      <c r="I20" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K20" s="17">
+        <v>-2.7029999999999998</v>
+      </c>
+      <c r="L20" s="17">
+        <v>3.8441999999999998</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="5"/>
+        <v>13.842036815687413</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20">
+        <v>65.98</v>
+      </c>
+      <c r="T20">
+        <v>0.24</v>
+      </c>
+      <c r="U20">
+        <v>0.17</v>
+      </c>
+      <c r="V20" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W20">
+        <v>6.47</v>
+      </c>
+      <c r="X20">
+        <v>3.14</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>2.15</v>
+      </c>
+      <c r="AA20">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB20">
+        <v>0.12</v>
+      </c>
+      <c r="AC20">
+        <v>1.72</v>
+      </c>
+      <c r="AD20">
+        <v>2.4436</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>5.4934021217736904</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>0.48621268273649854</v>
+      </c>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I21" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K21" s="17">
+        <v>-2.3769999999999998</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3.3445</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2789749012733171</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21">
+        <v>65.98</v>
+      </c>
+      <c r="T21">
+        <v>0.24</v>
+      </c>
+      <c r="U21">
+        <v>0.17</v>
+      </c>
+      <c r="V21" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W21">
+        <v>6.47</v>
+      </c>
+      <c r="X21">
+        <v>-2.3794119850920863</v>
+      </c>
+      <c r="Y21">
+        <v>0.99994847979001067</v>
+      </c>
+      <c r="Z21">
+        <v>-0.88</v>
+      </c>
+      <c r="AA21">
+        <v>-0.39</v>
+      </c>
+      <c r="AB21">
+        <v>0.46</v>
+      </c>
+      <c r="AC21">
+        <v>0.33</v>
+      </c>
+      <c r="AD21">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>5.5240716905730691</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>0.77242415895976446</v>
+      </c>
+      <c r="AG21" s="17"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2.4436</v>
+      </c>
+      <c r="I22" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K22" s="17">
+        <v>-3.4748000000000001</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7639439480960146E-3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22">
+        <v>65.98</v>
+      </c>
+      <c r="T22">
+        <v>0.24</v>
+      </c>
+      <c r="U22">
+        <v>0.17</v>
+      </c>
+      <c r="V22" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W22">
+        <v>6.47</v>
+      </c>
+      <c r="X22">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>2.06</v>
+      </c>
+      <c r="AA22">
+        <v>1.29</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0.26</v>
+      </c>
+      <c r="AD22">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>0.33259962477143107</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>0.53049512330584203</v>
+      </c>
+      <c r="AG22" s="17"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="E23" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I23" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K23" s="17">
+        <v>-3.6171000000000002</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0.45152999999999999</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8301462015690783E-4</v>
+      </c>
+      <c r="R23" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23">
+        <v>65.98</v>
+      </c>
+      <c r="T23">
+        <v>0.24</v>
+      </c>
+      <c r="U23">
+        <v>0.17</v>
+      </c>
+      <c r="V23" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W23">
+        <v>6.47</v>
+      </c>
+      <c r="X23">
+        <v>6.74</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>3.63</v>
+      </c>
+      <c r="AA23">
+        <v>1.98</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0.44</v>
+      </c>
+      <c r="AD23">
+        <v>1.9536</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>2.323596898488729</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0.4482209808197688</v>
+      </c>
+      <c r="AG23" s="17"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I24" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K24" s="17">
+        <v>-3.2509999999999999</v>
+      </c>
+      <c r="L24" s="17">
+        <v>3.8037000000000001</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5702612803901568</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24">
+        <v>65.98</v>
+      </c>
+      <c r="T24">
+        <v>0.24</v>
+      </c>
+      <c r="U24">
+        <v>0.17</v>
+      </c>
+      <c r="V24" s="17">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="W24">
+        <v>6.47</v>
+      </c>
+      <c r="X24">
+        <v>1.2245666857799544</v>
+      </c>
+      <c r="Y24">
+        <v>1.243273525444244E-2</v>
+      </c>
+      <c r="Z24">
+        <v>1.47</v>
+      </c>
+      <c r="AA24">
+        <v>1.46</v>
+      </c>
+      <c r="AB24">
+        <v>0.64</v>
+      </c>
+      <c r="AC24">
+        <v>0.48</v>
+      </c>
+      <c r="AD24">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>5.0145597072027668</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>0.19394847017382624</v>
+      </c>
+      <c r="AG24" s="17"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1.9536</v>
+      </c>
+      <c r="I25" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K25" s="17">
+        <v>-3.4018999999999999</v>
+      </c>
+      <c r="L25" s="17">
+        <v>4.3368000000000002</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="5"/>
+        <v>8.6079552386946041</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I26" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K26" s="17">
+        <v>-3.0760000000000001</v>
+      </c>
+      <c r="L26" s="17">
+        <v>3.7791000000000001</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0477751350094726</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2.4436</v>
+      </c>
+      <c r="I27" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K27" s="17">
+        <v>-4.4748000000000001</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1.5018</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0641430182243147E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="E28" s="17">
+        <v>-0.39</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I28" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K28" s="17">
+        <v>-4.6170999999999998</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0.47521000000000002</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2129014756196631E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2.06</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I29" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-4.2510000000000003</v>
+      </c>
+      <c r="L29" s="17">
+        <v>4.1722999999999999</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83425727013001738</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1.9536</v>
+      </c>
+      <c r="I30" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-4.4019000000000004</v>
+      </c>
+      <c r="L30" s="17">
+        <v>4.9766000000000004</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="5"/>
+        <v>3.755778746557723</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
+      <c r="C31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I31" s="17">
+        <v>189.33</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K31" s="17">
+        <v>-4.0759999999999996</v>
+      </c>
+      <c r="L31" s="17">
+        <v>4.3178999999999998</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7454202087913728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969FD9D2-7D61-4847-8A44-4F7476314EC2}">
   <dimension ref="C6:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C7">
         <f>AVERAGE(C8:C12)</f>
         <v>1.9960999999999998</v>
@@ -1836,7 +4990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C8">
         <v>1.98</v>
       </c>
@@ -1869,7 +5023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C9">
         <f>AVERAGE(0.041,1.6)</f>
         <v>0.82050000000000001</v>
@@ -1900,7 +5054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C10">
         <v>1.89</v>
       </c>
@@ -1923,7 +5077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C11">
         <f>AVERAGE(1.7,2.9)</f>
         <v>2.2999999999999998</v>
@@ -1962,7 +5116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C12">
         <f>AVERAGE(2.77,3.21)</f>
         <v>2.99</v>
@@ -1999,7 +5153,7 @@
         <v>16464</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
       <c r="K13" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +5165,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +5180,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C15">
         <f>AVERAGE(C16:C20)</f>
         <v>2.1819999999999999</v>
@@ -2038,7 +5192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>0.5</v>
       </c>
@@ -2055,7 +5209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>3.8</v>
       </c>
@@ -2075,7 +5229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18">
         <v>2.5</v>
       </c>
@@ -2092,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19">
         <v>2.8</v>
       </c>
@@ -2109,7 +5263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20">
         <v>1.31</v>
       </c>
@@ -2126,7 +5280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22">
         <v>-0.21</v>
       </c>
@@ -2143,7 +5297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23">
         <v>-0.2</v>
       </c>
@@ -2160,7 +5314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24">
         <v>-0.5</v>
       </c>
@@ -2177,7 +5331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>50</v>
       </c>
@@ -2194,7 +5348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>64</v>
       </c>

--- a/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
+++ b/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3581266-B3AD-46CC-A3B8-1B6F2FC0CA1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F3551-A751-40FC-AB3E-31E1CCE93D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="8730" windowHeight="3503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="8730" windowHeight="3510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>Compound</t>
   </si>
@@ -393,18 +393,25 @@
   </si>
   <si>
     <t>Freundlich Model of Sigmund et al (2020)</t>
+  </si>
+  <si>
+    <t>TCEP</t>
+  </si>
+  <si>
+    <t>C(CCl)OP(=O)(OCCCl)OCCCl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +579,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -874,7 +888,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -919,8 +933,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -934,16 +952,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -951,8 +966,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -980,6 +1007,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -991,7 +1019,10 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{7A265A84-AE11-4605-A408-C0A7FB475710}"/>
+    <cellStyle name="Normal 2 2" xfId="46" xr:uid="{5C8914AF-4A79-4341-AA83-86F140F2ABCC}"/>
+    <cellStyle name="Normal 2 3" xfId="45" xr:uid="{0757EAE8-FDC6-4C0E-9E19-F1EF4E692B0A}"/>
     <cellStyle name="Normal 3" xfId="43" xr:uid="{487139A0-FDB3-4A65-9307-8866B9BF4E59}"/>
+    <cellStyle name="Normal 3 2" xfId="47" xr:uid="{43E3665C-4ACD-488C-9F5C-A214DC19A764}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1952,8 +1983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C14E4110-AAF7-4602-8CA1-B31B83E5751B}" name="Table2" displayName="Table2" ref="C11:L31" totalsRowShown="0">
-  <autoFilter ref="C11:L31" xr:uid="{B4A1B920-DC8B-445E-834E-FD5C80B16E26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C14E4110-AAF7-4602-8CA1-B31B83E5751B}" name="Table2" displayName="Table2" ref="C13:L37" totalsRowShown="0">
+  <autoFilter ref="C13:L37" xr:uid="{B4A1B920-DC8B-445E-834E-FD5C80B16E26}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{680884C5-0132-457F-BEF2-CE55437E4561}" name="MolMass" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9CDF3320-1411-48CF-BF19-F78B164E1E7A}" name="E"/>
@@ -2282,30 +2313,30 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.73046875" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="17" customWidth="1"/>
-    <col min="13" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="15" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2370,7 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>99</v>
       </c>
       <c r="M1" t="s">
@@ -2373,7 +2404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2415,7 @@
         <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(T2*100)^0.6))*(3600/100^2)</f>
         <v>7.3648366095385989E-6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>298.15^(1.75)*10^-3*SQRT((28.97+B2)/(28.97*B2))/(1*((T2*100)^(1/3)+(20.1)^(1/3))^2)</f>
         <v>5.1730159612816511E-2</v>
       </c>
@@ -2410,10 +2441,10 @@
       <c r="K2" s="1">
         <v>3.14</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>4.2520999999999995</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>999</v>
       </c>
       <c r="N2" s="1"/>
@@ -2439,7 +2470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2450,7 +2481,7 @@
         <f>'Refs and Values'!$L$9</f>
         <v>4.8999999999999997E-6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D6" si="0">298.15^(1.75)*10^-3*SQRT((28.97+B3)/(28.97*B3))/(1*((T3*100)^(1/3)+(20.1)^(1/3))^2)</f>
         <v>6.2351030201376383E-2</v>
       </c>
@@ -2478,7 +2509,7 @@
         <f>'Refs and Values'!$C$7</f>
         <v>1.9960999999999998</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>3.44408</v>
       </c>
       <c r="M3" s="1">
@@ -2511,7 +2542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,7 +2553,7 @@
         <f t="shared" ref="C4" si="1">(0.000000074*(2.6*B4)^0.5*(273.15+17)/(1.0791*(T4*100)^0.6))*(3600/100^2)</f>
         <v>7.7707307432923926E-6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>6.7332001880945375E-2</v>
       </c>
@@ -2549,10 +2580,10 @@
       <c r="K4" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>6.7060500000000003</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>999</v>
       </c>
       <c r="N4" s="1"/>
@@ -2581,18 +2612,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>252.316</v>
       </c>
       <c r="C5" s="2">
         <f>(0.000000074*(2.6*B5)^0.5*(273.15+17)/(1.0791*(T5*100)^0.6))*(3600/100^2)</f>
         <v>7.745559321253756E-6</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>5.7791957679240537E-2</v>
       </c>
@@ -2619,7 +2650,7 @@
       <c r="K5">
         <v>6.74</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>7.1948499999999997</v>
       </c>
       <c r="M5">
@@ -2650,28 +2681,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="21">
         <v>119.127</v>
       </c>
       <c r="C6" s="2">
         <f>(0.000000074*(2.6*B6)^0.5*(273.15+17)/(1.0791*(T6*100)^0.6))*(3600/100^2)</f>
         <v>8.6819708262146042E-6</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>8.6924966666676776E-2</v>
       </c>
       <c r="E6" s="2">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>360</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>720</v>
       </c>
       <c r="H6" s="1">
@@ -2688,7 +2719,7 @@
         <f>LOG(71)</f>
         <v>1.8512583487190752</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>6.64595</v>
       </c>
       <c r="M6" s="1">
@@ -2724,92 +2755,150 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="21">
+        <v>285.48200000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.6559999999999999E-6</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.7243999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.9E-11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1440</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2880</v>
+      </c>
+      <c r="H7" s="18">
+        <v>144</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.56</v>
+      </c>
+      <c r="J7" s="18">
+        <v>-6.29</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="L7" s="18">
+        <v>7.7895500000000002</v>
+      </c>
+      <c r="M7" s="18">
+        <v>999</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>7.18</v>
+      </c>
+      <c r="Q7">
+        <v>2.09</v>
+      </c>
+      <c r="R7">
+        <v>0.03</v>
+      </c>
+      <c r="S7">
+        <v>0.98</v>
+      </c>
+      <c r="T7">
+        <v>1.76</v>
+      </c>
+      <c r="U7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
     </row>
   </sheetData>
@@ -2821,30 +2910,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893187D8-C220-4F45-9E13-59CBB8F4D5BF}">
-  <dimension ref="B1:AJ31"/>
+  <dimension ref="B1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="R1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -2852,98 +2941,98 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>80</v>
       </c>
       <c r="N3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>97</v>
       </c>
       <c r="S4" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="AE4" t="s">
@@ -2965,39 +3054,39 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>298.39999999999998</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>2.15</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>0.12</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>1.72</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>2.4436</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>189.33290384615387</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>0.15167980769230768</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>LOG($K$3/1/C5)</f>
         <v>-2.4747988188006311</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <f>AVERAGEIF(Table2[MolMass],"="&amp;B5,Table2[Kd])</f>
         <v>1.2521</v>
       </c>
@@ -3005,61 +3094,61 @@
         <f>(10^(L5)*10^K5)*1000*C5</f>
         <v>17868.989761804281</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <f>LOG(M5/$K$3)</f>
         <v>4.2520999999999995</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="S5">
         <v>79.09</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="16">
         <v>0.24</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="16">
         <v>0.17</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="16">
         <v>85.3</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <v>6.47</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="18">
         <f>CHEMSUMM!K2</f>
         <v>3.14</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>2.15</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <v>2.0299999999999998</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="18">
         <v>0.12</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>1.72</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>2.4436</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="16">
         <v>5.1662089587950391</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="16">
         <v>0.4791143812258129</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R5,$AE$5:$AE$24)</f>
         <v>5.2561474743145284</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="AH5" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R5,$AF$5:$AF$24)</f>
         <v>0.48774820972488253</v>
       </c>
@@ -3072,846 +3161,821 @@
         <v>5.2561474743145293</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>414.07</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>-0.88</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>-0.39</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0.46</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.33</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>1.5757000000000001</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>189.33290384615387</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>0.15167980769230768</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" ref="K6:K9" si="0">LOG($K$3/1/C6)</f>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6:K10" si="0">LOG($K$3/1/C6)</f>
         <v>-2.6170737663477652</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <f>AVERAGEIF(Table2[MolMass],"="&amp;B6,Table2[Kd])</f>
         <v>0.44408000000000003</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <f t="shared" ref="M6:M9" si="1">(10^(L6)*10^K6)*1000*C6</f>
         <v>2780.2253570296571</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f t="shared" ref="N6:N9" si="2">LOG(M6/$K$3)</f>
         <v>3.44408</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="R6" s="19" t="s">
+      <c r="O6" s="16"/>
+      <c r="R6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>79.09</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="16">
         <v>0.24</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>0.17</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="16">
         <v>85.3</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="16">
         <v>6.47</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="18">
         <f>CHEMSUMM!I3-LOG(1+10^(Kd_biochar_pred!W6-CHEMSUMM!M3))</f>
         <v>-2.3794119850920863</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
         <f>1-1/(1+10^(-1*(CHEMSUMM!M3-Kd_biochar_pred!W6)))</f>
         <v>0.99994847979001067</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="16">
         <v>-0.88</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="16">
         <v>-0.39</v>
       </c>
-      <c r="AB6" s="17">
+      <c r="AB6" s="16">
         <v>0.46</v>
       </c>
-      <c r="AC6" s="17">
+      <c r="AC6" s="16">
         <v>0.33</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <v>1.5757000000000001</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="16">
         <v>4.5463190816545902</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="16">
         <v>0.83052533714390009</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AG6" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R6,$AE$5:$AE$24)</f>
         <v>4.9675340275172459</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="AH6" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R6,$AF$5:$AF$24)</f>
         <v>0.80777915876451334</v>
       </c>
-      <c r="AI6" s="17">
+      <c r="AI6" s="16">
         <f t="shared" ref="AI6:AI9" si="3">10^AG6*$K$3^(AH6)</f>
         <v>92797.01949074505</v>
       </c>
-      <c r="AJ6" s="17">
+      <c r="AJ6" s="16">
         <f t="shared" ref="AJ6:AJ9" si="4">LOG(AI6/$K$3)</f>
         <v>4.9675340275172468</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>178.23</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>2.06</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>1.29</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0.26</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>1.4543999999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>189.33290384615387</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>0.15167980769230768</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f t="shared" si="0"/>
         <v>-2.2509808070963495</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <f>AVERAGEIF(Table2[MolMass],"="&amp;B7,Table2[Kd])</f>
         <v>3.7060500000000003</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>5082179.4994631745</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f t="shared" si="2"/>
         <v>6.7060500000000003</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="R7" s="19" t="s">
+      <c r="O7" s="16"/>
+      <c r="R7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>79.09</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="16">
         <v>0.24</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>0.17</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="16">
         <v>85.3</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="16">
         <v>6.47</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="18">
         <f>CHEMSUMM!K4</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <v>2.06</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="16">
         <v>1.29</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="18">
         <v>0</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="16">
         <v>0.26</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="18">
         <v>1.4543999999999999</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="16">
         <v>-7.1659467145981495E-2</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="16">
         <v>0.59733577311556507</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AG7" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R7,$AE$5:$AE$24)</f>
         <v>6.0224548389247637E-2</v>
       </c>
-      <c r="AH7" s="17">
+      <c r="AH7" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R7,$AF$5:$AF$24)</f>
         <v>0.57769257954737085</v>
       </c>
-      <c r="AI7" s="17">
+      <c r="AI7" s="16">
         <f t="shared" si="3"/>
         <v>1.1487474183775324</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AJ7" s="16">
         <f t="shared" si="4"/>
         <v>6.0224548389247644E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>252.316</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>3.63</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>1.98</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>0.44</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>1.9536</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>189.33290384615387</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0.15167980769230768</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>-2.4019447911096794</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f>AVERAGEIF(Table2[MolMass],"="&amp;B8,Table2[Kd])</f>
         <v>4.1948499999999997</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>15662100.268996088</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f t="shared" si="2"/>
         <v>7.1948499999999997</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="R8" s="19" t="s">
+      <c r="O8" s="16"/>
+      <c r="R8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>79.09</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="16">
         <v>0.24</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>0.17</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="16">
         <v>85.3</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="16">
         <v>6.47</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="18">
         <f>CHEMSUMM!K5</f>
         <v>6.74</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="16">
         <v>3.63</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="16">
         <v>1.98</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="18">
         <v>0</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AC8" s="16">
         <v>0.44</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="18">
         <v>1.9536</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="16">
         <v>1.4830342587683041</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AF8" s="16">
         <v>0.50400975004703974</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R8,$AE$5:$AE$24)</f>
         <v>1.7887608610066046</v>
       </c>
-      <c r="AH8" s="17">
+      <c r="AH8" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R8,$AF$5:$AF$24)</f>
         <v>0.48641627408780025</v>
       </c>
-      <c r="AI8" s="17">
+      <c r="AI8" s="16">
         <f t="shared" si="3"/>
         <v>61.48382262643635</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AJ8" s="16">
         <f t="shared" si="4"/>
         <v>1.7887608610066046</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>119.127</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>1.47</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1.46</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>0.64</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>0.48</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>0.86419999999999997</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>189.33290384615387</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>0.15167980769230768</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>-2.0760102049930564</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <f>AVERAGEIF(Table2[MolMass],"="&amp;B9,Table2[Kd])</f>
         <v>3.64595</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
         <v>4425374.2042628517</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f t="shared" si="2"/>
         <v>6.64595</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="R9" s="19" t="s">
+      <c r="O9" s="16"/>
+      <c r="R9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <v>79.09</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="16">
         <v>0.24</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <v>0.17</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="16">
         <v>85.3</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="16">
         <v>6.47</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="18">
         <f>CHEMSUMM!I6-LOG(1+10^(Kd_biochar_pred!W9-CHEMSUMM!M6))</f>
         <v>1.2245666857799544</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="15">
         <f>1-1/(1+10^(-1*(CHEMSUMM!M6-Kd_biochar_pred!W9)))</f>
         <v>1.243273525444244E-2</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="18">
         <v>1.47</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="18">
         <v>1.46</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="18">
         <v>0.64</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="18">
         <v>0.48</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="18">
         <v>0.86419999999999997</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="16">
         <v>5.7677745855689473</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="16">
         <v>0.36880927004596509</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R9,$AE$5:$AE$24)</f>
         <v>5.4989010944744248</v>
       </c>
-      <c r="AH9" s="17">
+      <c r="AH9" s="16">
         <f>AVERAGEIF($R$5:$R$24,"="&amp;R9,$AF$5:$AF$24)</f>
         <v>0.30430277820173979</v>
       </c>
-      <c r="AI9" s="17">
+      <c r="AI9" s="16">
         <f t="shared" si="3"/>
         <v>315428.61895156227</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AJ9" s="16">
         <f t="shared" si="4"/>
         <v>5.4989010944744257</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="R10" s="19" t="s">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="21">
+        <v>285.48200000000003</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.63</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2.09</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="I10" s="26">
+        <v>189.33290384615387</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.15167980769230768</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" si="0"/>
+        <v>-2.4555787306305028</v>
+      </c>
+      <c r="L10" s="26">
+        <f>AVERAGEIF(Table2[MolMass],"="&amp;B10,Table2[Kd])</f>
+        <v>4.7895500000000002</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" ref="M10" si="5">(10^(L10)*10^K10)*1000*C10</f>
+        <v>61595643.963911615</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" ref="N10" si="6">LOG(M10/$K$3)</f>
+        <v>7.7895500000000002</v>
+      </c>
+      <c r="R10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>65.98</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>0.24</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>0.17</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="16">
         <v>3.24</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="16">
         <v>6.47</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="18">
         <v>3.14</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="16">
         <v>0</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="18">
         <v>2.15</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="18">
         <v>2.0299999999999998</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="18">
         <v>0.12</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="18">
         <v>1.72</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="18">
         <v>2.4436</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="16">
         <v>4.8542628313548075</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="16">
         <v>0.50806741629785979</v>
       </c>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C11" s="17" t="s">
+      <c r="AG10" s="16"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="R11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="16">
+        <v>65.98</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="V11" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="W11" s="16">
+        <v>6.47</v>
+      </c>
+      <c r="X11" s="18">
+        <v>-2.3794119850920863</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0.99994847979001067</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>-0.88</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>-0.39</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>4.7603979047095928</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0.81126402978345991</v>
+      </c>
+      <c r="AG11" s="16"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="R12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="16">
+        <v>65.98</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="V12" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="W12" s="16">
+        <v>6.47</v>
+      </c>
+      <c r="X12" s="18">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>-0.23824306534089815</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0.61809802558790328</v>
+      </c>
+      <c r="AG12" s="16"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="16">
+        <v>65.98</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="V13" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="W13" s="16">
+        <v>6.47</v>
+      </c>
+      <c r="X13" s="18">
+        <v>6.74</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>3.63</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>1.9536</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>1.3172361589044053</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0.5186640484265882</v>
+      </c>
+      <c r="AG13" s="16"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2.4436</v>
+      </c>
+      <c r="I14" s="16">
+        <v>189.33</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K14" s="16">
+        <v>-2.4748000000000001</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.0613999999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <f>10^(L14)*10^K14</f>
+        <v>3.8601128374531966E-2</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="16">
+        <v>65.98</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="V14" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="W14" s="16">
+        <v>6.47</v>
+      </c>
+      <c r="X14" s="18">
+        <v>1.2245666857799544</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>1.243273525444244E-2</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>1.47</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>1.46</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>5.5797193039844872</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0.38836741030340577</v>
+      </c>
+      <c r="AG14" s="16"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="17">
-        <v>65.98</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="U11" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="V11" s="17">
-        <v>3.24</v>
-      </c>
-      <c r="W11" s="17">
-        <v>6.47</v>
-      </c>
-      <c r="X11" s="19">
-        <v>-2.3794119850920863</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>0.99994847979001067</v>
-      </c>
-      <c r="Z11" s="17">
+      <c r="D15" s="16">
         <v>-0.88</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="E15" s="16">
         <v>-0.39</v>
       </c>
-      <c r="AB11" s="17">
+      <c r="F15" s="16">
         <v>0.46</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="G15" s="16">
         <v>0.33</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="H15" s="16">
         <v>1.5757000000000001</v>
       </c>
-      <c r="AE11" s="17">
-        <v>4.7603979047095928</v>
-      </c>
-      <c r="AF11" s="17">
-        <v>0.81126402978345991</v>
-      </c>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2.4436</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="I15" s="16">
         <v>189.33</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J15" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K12" s="17">
-        <v>-2.4748000000000001</v>
-      </c>
-      <c r="L12" s="17">
-        <v>1.0613999999999999</v>
-      </c>
-      <c r="M12" s="3">
-        <f>10^(L12)*10^K12</f>
-        <v>3.8601128374531966E-2</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="17">
-        <v>65.98</v>
-      </c>
-      <c r="T12" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="U12" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="V12" s="17">
-        <v>3.24</v>
-      </c>
-      <c r="W12" s="17">
-        <v>6.47</v>
-      </c>
-      <c r="X12" s="19">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>2.06</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>1.29</v>
-      </c>
-      <c r="AB12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>1.4543999999999999</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>-0.23824306534089815</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>0.61809802558790328</v>
-      </c>
-      <c r="AG12" s="17"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="17">
-        <v>-0.88</v>
-      </c>
-      <c r="E13" s="17">
-        <v>-0.39</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1.5757000000000001</v>
-      </c>
-      <c r="I13" s="17">
-        <v>189.33</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.15168000000000001</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="K15" s="16">
         <v>-2.6171000000000002</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L15" s="16">
         <v>0.41946</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" ref="M13:M31" si="5">10^(L13)*10^K13</f>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15:M37" si="7">10^(L15)*10^K15</f>
         <v>6.3439536311258454E-3</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="17">
-        <v>65.98</v>
-      </c>
-      <c r="T13" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="U13" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="V13" s="17">
-        <v>3.24</v>
-      </c>
-      <c r="W13" s="17">
-        <v>6.47</v>
-      </c>
-      <c r="X13" s="19">
-        <v>6.74</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>3.63</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>1.98</v>
-      </c>
-      <c r="AB13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>0.44</v>
-      </c>
-      <c r="AD13" s="19">
-        <v>1.9536</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>1.3172361589044053</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>0.5186640484265882</v>
-      </c>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2.06</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1.29</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1.4543999999999999</v>
-      </c>
-      <c r="I14" s="17">
-        <v>189.33</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.15168000000000001</v>
-      </c>
-      <c r="K14" s="17">
-        <v>-2.2509999999999999</v>
-      </c>
-      <c r="L14" s="17">
-        <v>3.3515000000000001</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
-        <v>12.603756378944256</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="17">
-        <v>65.98</v>
-      </c>
-      <c r="T14" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="U14" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="V14" s="17">
-        <v>3.24</v>
-      </c>
-      <c r="W14" s="17">
-        <v>6.47</v>
-      </c>
-      <c r="X14" s="19">
-        <v>1.2245666857799544</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>1.243273525444244E-2</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>1.47</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>1.46</v>
-      </c>
-      <c r="AB14" s="19">
-        <v>0.64</v>
-      </c>
-      <c r="AC14" s="19">
-        <v>0.48</v>
-      </c>
-      <c r="AD14" s="19">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>5.5797193039844872</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>0.38836741030340577</v>
-      </c>
-      <c r="AG14" s="17"/>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3.63</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1.98</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.44</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1.9536</v>
-      </c>
-      <c r="I15" s="17">
-        <v>189.33</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.15168000000000001</v>
-      </c>
-      <c r="K15" s="17">
-        <v>-2.4018999999999999</v>
-      </c>
-      <c r="L15" s="17">
-        <v>3.6217999999999999</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
-        <v>16.592048174216277</v>
       </c>
       <c r="R15" t="s">
         <v>21</v>
@@ -3925,7 +3989,7 @@
       <c r="U15">
         <v>0.17</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W15">
@@ -3952,48 +4016,48 @@
       <c r="AD15">
         <v>2.4436</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AE15" s="16">
         <v>5.510715985334576</v>
       </c>
-      <c r="AF15" s="17">
+      <c r="AF15" s="16">
         <v>0.47759835863935884</v>
       </c>
-      <c r="AG15" s="17"/>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="C16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1.47</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.64</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="AG15" s="16"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I16" s="16">
         <v>189.33</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K16" s="17">
-        <v>-2.0760000000000001</v>
-      </c>
-      <c r="L16" s="17">
-        <v>3.1423000000000001</v>
+      <c r="K16" s="16">
+        <v>-2.2509999999999999</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3.3515000000000001</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="5"/>
-        <v>11.649304569904537</v>
+        <f t="shared" si="7"/>
+        <v>12.603756378944256</v>
       </c>
       <c r="R16" t="s">
         <v>52</v>
@@ -4007,7 +4071,7 @@
       <c r="U16">
         <v>0.17</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W16">
@@ -4034,48 +4098,48 @@
       <c r="AD16">
         <v>1.5757000000000001</v>
       </c>
-      <c r="AE16" s="17">
+      <c r="AE16" s="16">
         <v>5.0393474331317307</v>
       </c>
-      <c r="AF16" s="17">
+      <c r="AF16" s="16">
         <v>0.81690310917092912</v>
       </c>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2.4436</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3.63</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1.9536</v>
+      </c>
+      <c r="I17" s="16">
         <v>189.33</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K17" s="17">
-        <v>-2.7757999999999998</v>
-      </c>
-      <c r="L17" s="17">
-        <v>1.1402000000000001</v>
+      <c r="K17" s="16">
+        <v>-2.4018999999999999</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3.6217999999999999</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3141952615112545E-2</v>
+        <f t="shared" si="7"/>
+        <v>16.592048174216277</v>
       </c>
       <c r="R17" t="s">
         <v>54</v>
@@ -4089,7 +4153,7 @@
       <c r="U17">
         <v>0.17</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W17">
@@ -4116,48 +4180,48 @@
       <c r="AD17">
         <v>1.4543999999999999</v>
       </c>
-      <c r="AE17" s="17">
+      <c r="AE17" s="16">
         <v>0.21820110127243914</v>
       </c>
-      <c r="AF17" s="17">
+      <c r="AF17" s="16">
         <v>0.56484139618017326</v>
       </c>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-0.88</v>
-      </c>
-      <c r="E18" s="17">
-        <v>-0.39</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1.5757000000000001</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="AG17" s="16"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.46</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I18" s="16">
         <v>189.33</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K18" s="17">
-        <v>-2.9180999999999999</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0.43012</v>
+      <c r="K18" s="16">
+        <v>-2.0760000000000001</v>
+      </c>
+      <c r="L18" s="16">
+        <v>3.1423000000000001</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="5"/>
-        <v>3.2510226855345325E-3</v>
+        <f t="shared" si="7"/>
+        <v>11.649304569904537</v>
       </c>
       <c r="R18" t="s">
         <v>53</v>
@@ -4171,7 +4235,7 @@
       <c r="U18">
         <v>0.17</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W18">
@@ -4198,48 +4262,48 @@
       <c r="AD18">
         <v>1.9536</v>
       </c>
-      <c r="AE18" s="17">
+      <c r="AE18" s="16">
         <v>2.0311761278649807</v>
       </c>
-      <c r="AF18" s="17">
+      <c r="AF18" s="16">
         <v>0.47477031705780448</v>
       </c>
-      <c r="AG18" s="17"/>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="17">
-        <v>2.06</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1.29</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1.4543999999999999</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="AG18" s="16"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="H19" s="16">
+        <v>2.4436</v>
+      </c>
+      <c r="I19" s="16">
         <v>189.33</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K19" s="17">
-        <v>-2.552</v>
-      </c>
-      <c r="L19" s="17">
-        <v>3.4967000000000001</v>
+      <c r="K19" s="16">
+        <v>-2.7757999999999998</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1.1402000000000001</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="5"/>
-        <v>8.8044047616467598</v>
+        <f t="shared" si="7"/>
+        <v>2.3141952615112545E-2</v>
       </c>
       <c r="R19" t="s">
         <v>55</v>
@@ -4253,7 +4317,7 @@
       <c r="U19">
         <v>0.17</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W19">
@@ -4280,48 +4344,48 @@
       <c r="AD19">
         <v>0.86419999999999997</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AE19" s="16">
         <v>5.6335507811414978</v>
       </c>
-      <c r="AF19" s="17">
+      <c r="AF19" s="16">
         <v>0.26608596228376202</v>
       </c>
-      <c r="AG19" s="17"/>
-    </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="17">
-        <v>3.63</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1.98</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0.44</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1.9536</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="AG19" s="16"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="16">
+        <v>-0.88</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-0.39</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I20" s="16">
         <v>189.33</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K20" s="17">
-        <v>-2.7029999999999998</v>
-      </c>
-      <c r="L20" s="17">
-        <v>3.8441999999999998</v>
+      <c r="K20" s="16">
+        <v>-2.9180999999999999</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.43012</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="5"/>
-        <v>13.842036815687413</v>
+        <f t="shared" si="7"/>
+        <v>3.2510226855345325E-3</v>
       </c>
       <c r="R20" t="s">
         <v>21</v>
@@ -4335,7 +4399,7 @@
       <c r="U20">
         <v>0.17</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W20">
@@ -4362,48 +4426,48 @@
       <c r="AD20">
         <v>2.4436</v>
       </c>
-      <c r="AE20" s="17">
+      <c r="AE20" s="16">
         <v>5.4934021217736904</v>
       </c>
-      <c r="AF20" s="17">
+      <c r="AF20" s="16">
         <v>0.48621268273649854</v>
       </c>
-      <c r="AG20" s="17"/>
-    </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1.47</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.64</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="I21" s="17">
+      <c r="AG20" s="16"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I21" s="16">
         <v>189.33</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K21" s="17">
-        <v>-2.3769999999999998</v>
-      </c>
-      <c r="L21" s="17">
-        <v>3.3445</v>
+      <c r="K21" s="16">
+        <v>-2.552</v>
+      </c>
+      <c r="L21" s="16">
+        <v>3.4967000000000001</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="5"/>
-        <v>9.2789749012733171</v>
+        <f t="shared" si="7"/>
+        <v>8.8044047616467598</v>
       </c>
       <c r="R21" t="s">
         <v>52</v>
@@ -4417,7 +4481,7 @@
       <c r="U21">
         <v>0.17</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W21">
@@ -4444,48 +4508,48 @@
       <c r="AD21">
         <v>1.5757000000000001</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21" s="16">
         <v>5.5240716905730691</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21" s="16">
         <v>0.77242415895976446</v>
       </c>
-      <c r="AG21" s="17"/>
-    </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="E22" s="17">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="H22" s="17">
-        <v>2.4436</v>
-      </c>
-      <c r="I22" s="17">
+      <c r="AG21" s="16"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3.63</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1.9536</v>
+      </c>
+      <c r="I22" s="16">
         <v>189.33</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K22" s="17">
-        <v>-3.4748000000000001</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1.3049999999999999</v>
+      <c r="K22" s="16">
+        <v>-2.7029999999999998</v>
+      </c>
+      <c r="L22" s="16">
+        <v>3.8441999999999998</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="5"/>
-        <v>6.7639439480960146E-3</v>
+        <f t="shared" si="7"/>
+        <v>13.842036815687413</v>
       </c>
       <c r="R22" t="s">
         <v>54</v>
@@ -4499,7 +4563,7 @@
       <c r="U22">
         <v>0.17</v>
       </c>
-      <c r="V22" s="17">
+      <c r="V22" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W22">
@@ -4526,48 +4590,48 @@
       <c r="AD22">
         <v>1.4543999999999999</v>
       </c>
-      <c r="AE22" s="17">
+      <c r="AE22" s="16">
         <v>0.33259962477143107</v>
       </c>
-      <c r="AF22" s="17">
+      <c r="AF22" s="16">
         <v>0.53049512330584203</v>
       </c>
-      <c r="AG22" s="17"/>
-    </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-0.88</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-0.39</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1.5757000000000001</v>
-      </c>
-      <c r="I23" s="17">
+      <c r="AG22" s="16"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.46</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I23" s="16">
         <v>189.33</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K23" s="17">
-        <v>-3.6171000000000002</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0.45152999999999999</v>
+      <c r="K23" s="16">
+        <v>-2.3769999999999998</v>
+      </c>
+      <c r="L23" s="16">
+        <v>3.3445</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="5"/>
-        <v>6.8301462015690783E-4</v>
+        <f t="shared" si="7"/>
+        <v>9.2789749012733171</v>
       </c>
       <c r="R23" t="s">
         <v>53</v>
@@ -4581,7 +4645,7 @@
       <c r="U23">
         <v>0.17</v>
       </c>
-      <c r="V23" s="17">
+      <c r="V23" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W23">
@@ -4608,48 +4672,48 @@
       <c r="AD23">
         <v>1.9536</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AE23" s="16">
         <v>2.323596898488729</v>
       </c>
-      <c r="AF23" s="17">
+      <c r="AF23" s="16">
         <v>0.4482209808197688</v>
       </c>
-      <c r="AG23" s="17"/>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="17">
-        <v>2.06</v>
-      </c>
-      <c r="E24" s="17">
-        <v>1.29</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="H24" s="17">
-        <v>1.4543999999999999</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="AG23" s="16"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2.4436</v>
+      </c>
+      <c r="I24" s="16">
         <v>189.33</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K24" s="17">
-        <v>-3.2509999999999999</v>
-      </c>
-      <c r="L24" s="17">
-        <v>3.8037000000000001</v>
+      <c r="K24" s="16">
+        <v>-3.4748000000000001</v>
+      </c>
+      <c r="L24" s="16">
+        <v>1.3049999999999999</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5702612803901568</v>
+        <f t="shared" si="7"/>
+        <v>6.7639439480960146E-3</v>
       </c>
       <c r="R24" t="s">
         <v>55</v>
@@ -4663,7 +4727,7 @@
       <c r="U24">
         <v>0.17</v>
       </c>
-      <c r="V24" s="17">
+      <c r="V24" s="16">
         <v>189.33290384615387</v>
       </c>
       <c r="W24">
@@ -4690,264 +4754,480 @@
       <c r="AD24">
         <v>0.86419999999999997</v>
       </c>
-      <c r="AE24" s="17">
+      <c r="AE24" s="16">
         <v>5.0145597072027668</v>
       </c>
-      <c r="AF24" s="17">
+      <c r="AF24" s="16">
         <v>0.19394847017382624</v>
       </c>
-      <c r="AG24" s="17"/>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C25" s="19" t="s">
+      <c r="AG24" s="16"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="16">
+        <v>-0.88</v>
+      </c>
+      <c r="E25" s="16">
+        <v>-0.39</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1.5757000000000001</v>
+      </c>
+      <c r="I25" s="16">
+        <v>189.33</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K25" s="16">
+        <v>-3.6171000000000002</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.45152999999999999</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="7"/>
+        <v>6.8301462015690783E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="I26" s="16">
+        <v>189.33</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-3.2509999999999999</v>
+      </c>
+      <c r="L26" s="16">
+        <v>3.8037000000000001</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="7"/>
+        <v>3.5702612803901568</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D27" s="16">
         <v>3.63</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E27" s="16">
         <v>1.98</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F27" s="16">
         <v>0</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G27" s="16">
         <v>0.44</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H27" s="16">
         <v>1.9536</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I27" s="16">
         <v>189.33</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J27" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K27" s="16">
         <v>-3.4018999999999999</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L27" s="16">
         <v>4.3368000000000002</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="5"/>
+      <c r="M27" s="3">
+        <f t="shared" si="7"/>
         <v>8.6079552386946041</v>
       </c>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C26" s="19" t="s">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D28" s="16">
         <v>1.47</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E28" s="16">
         <v>1.46</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F28" s="16">
         <v>0.64</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G28" s="16">
         <v>0.48</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H28" s="16">
         <v>0.86419999999999997</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I28" s="16">
         <v>189.33</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J28" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K28" s="16">
         <v>-3.0760000000000001</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L28" s="16">
         <v>3.7791000000000001</v>
       </c>
-      <c r="M26" s="3">
-        <f t="shared" si="5"/>
+      <c r="M28" s="3">
+        <f t="shared" si="7"/>
         <v>5.0477751350094726</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C27" s="19" t="s">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="16">
         <v>2.15</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E29" s="16">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F29" s="16">
         <v>0.12</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G29" s="16">
         <v>1.72</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H29" s="16">
         <v>2.4436</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I29" s="16">
         <v>189.33</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J29" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K29" s="16">
         <v>-4.4748000000000001</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L29" s="16">
         <v>1.5018</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="5"/>
+      <c r="M29" s="3">
+        <f t="shared" si="7"/>
         <v>1.0641430182243147E-3</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C28" s="19" t="s">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D30" s="16">
         <v>-0.88</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E30" s="16">
         <v>-0.39</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F30" s="16">
         <v>0.46</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G30" s="16">
         <v>0.33</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H30" s="16">
         <v>1.5757000000000001</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I30" s="16">
         <v>189.33</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J30" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K30" s="16">
         <v>-4.6170999999999998</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L30" s="16">
         <v>0.47521000000000002</v>
       </c>
-      <c r="M28" s="3">
-        <f t="shared" si="5"/>
+      <c r="M30" s="3">
+        <f t="shared" si="7"/>
         <v>7.2129014756196631E-5</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C29" s="19" t="s">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D31" s="16">
         <v>2.06</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E31" s="16">
         <v>1.29</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F31" s="16">
         <v>0</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G31" s="16">
         <v>0.26</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H31" s="16">
         <v>1.4543999999999999</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I31" s="16">
         <v>189.33</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J31" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K31" s="16">
         <v>-4.2510000000000003</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L31" s="16">
         <v>4.1722999999999999</v>
       </c>
-      <c r="M29" s="3">
-        <f t="shared" si="5"/>
+      <c r="M31" s="3">
+        <f t="shared" si="7"/>
         <v>0.83425727013001738</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C30" s="19" t="s">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D32" s="16">
         <v>3.63</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E32" s="16">
         <v>1.98</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G32" s="16">
         <v>0.44</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H32" s="16">
         <v>1.9536</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I32" s="16">
         <v>189.33</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J32" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K32" s="16">
         <v>-4.4019000000000004</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L32" s="16">
         <v>4.9766000000000004</v>
       </c>
-      <c r="M30" s="3">
-        <f t="shared" si="5"/>
+      <c r="M32" s="3">
+        <f t="shared" si="7"/>
         <v>3.755778746557723</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C31" s="19" t="s">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D33" s="16">
         <v>1.47</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E33" s="16">
         <v>1.46</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F33" s="16">
         <v>0.64</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G33" s="16">
         <v>0.48</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H33" s="16">
         <v>0.86419999999999997</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I33" s="16">
         <v>189.33</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J33" s="16">
         <v>0.15168000000000001</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K33" s="16">
         <v>-4.0759999999999996</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L33" s="16">
         <v>4.3178999999999998</v>
       </c>
-      <c r="M31" s="3">
-        <f t="shared" si="5"/>
+      <c r="M33" s="3">
+        <f t="shared" si="7"/>
         <v>1.7454202087913728</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0.63</v>
+      </c>
+      <c r="E34" s="26">
+        <v>2.09</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="H34" s="26">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="I34" s="26">
+        <v>189.33</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K34" s="26">
+        <v>-2.4556</v>
+      </c>
+      <c r="L34" s="26">
+        <v>4.6245000000000003</v>
+      </c>
+      <c r="M34" s="27">
+        <f t="shared" si="7"/>
+        <v>147.53667784066062</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0.63</v>
+      </c>
+      <c r="E35" s="26">
+        <v>2.09</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="H35" s="26">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="I35" s="26">
+        <v>189.33</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K35" s="26">
+        <v>-2.7566000000000002</v>
+      </c>
+      <c r="L35" s="26">
+        <v>4.6994999999999996</v>
+      </c>
+      <c r="M35" s="27">
+        <f t="shared" si="7"/>
+        <v>87.679890748896327</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.63</v>
+      </c>
+      <c r="E36" s="26">
+        <v>2.09</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="H36" s="26">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="I36" s="26">
+        <v>189.33</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K36" s="26">
+        <v>-3.4556</v>
+      </c>
+      <c r="L36" s="26">
+        <v>4.8448000000000002</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="7"/>
+        <v>24.501913368807852</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.63</v>
+      </c>
+      <c r="E37" s="26">
+        <v>2.09</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="H37" s="26">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="I37" s="26">
+        <v>189.33</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0.15168000000000001</v>
+      </c>
+      <c r="K37" s="26">
+        <v>-4.4555999999999996</v>
+      </c>
+      <c r="L37" s="26">
+        <v>4.9893999999999998</v>
+      </c>
+      <c r="M37" s="27">
+        <f t="shared" si="7"/>
+        <v>3.4182199141765741</v>
       </c>
     </row>
   </sheetData>
@@ -4968,29 +5248,29 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>AVERAGE(C8:C12)</f>
         <v>1.9960999999999998</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.98</v>
       </c>
@@ -5023,7 +5303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>AVERAGE(0.041,1.6)</f>
         <v>0.82050000000000001</v>
@@ -5054,7 +5334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.89</v>
       </c>
@@ -5077,7 +5357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>AVERAGE(1.7,2.9)</f>
         <v>2.2999999999999998</v>
@@ -5116,7 +5396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>AVERAGE(2.77,3.21)</f>
         <v>2.99</v>
@@ -5153,7 +5433,7 @@
         <v>16464</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>26</v>
       </c>
@@ -5165,7 +5445,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -5180,7 +5460,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>AVERAGE(C16:C20)</f>
         <v>2.1819999999999999</v>
@@ -5192,7 +5472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>0.5</v>
       </c>
@@ -5209,7 +5489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3.8</v>
       </c>
@@ -5229,7 +5509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2.5</v>
       </c>
@@ -5246,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2.8</v>
       </c>
@@ -5263,7 +5543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1.31</v>
       </c>
@@ -5280,7 +5560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>-0.21</v>
       </c>
@@ -5297,7 +5577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>-0.2</v>
       </c>
@@ -5314,7 +5594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>-0.5</v>
       </c>
@@ -5331,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>50</v>
       </c>
@@ -5348,7 +5628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>64</v>
       </c>

--- a/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
+++ b/inputfiles/Pine8th/EngDesign_CHEMSUMM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F3551-A751-40FC-AB3E-31E1CCE93D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2FBCB-92D9-459A-BB60-8DB96609818A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="8730" windowHeight="3510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
